--- a/excel/devicelist.xlsx
+++ b/excel/devicelist.xlsx
@@ -196,6 +196,27 @@
   </si>
   <si>
     <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017120001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大连</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辛国</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -2670,16 +2691,16 @@
         <v>66</v>
       </c>
       <c r="I9" s="10">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J9" s="10">
-        <v>26318.25</v>
+        <v>8000</v>
       </c>
       <c r="K9" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9" s="10">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1">
@@ -2698,20 +2719,18 @@
       <c r="E10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="I10" s="10">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J10" s="10">
-        <v>137630</v>
+        <v>26318.25</v>
       </c>
       <c r="K10" s="10">
         <v>0</v>
@@ -2722,34 +2741,34 @@
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="I11" s="10">
         <v>1</v>
       </c>
       <c r="J11" s="10">
-        <v>284017</v>
+        <v>137630</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
@@ -2760,21 +2779,23 @@
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
         <v>88</v>
       </c>
@@ -2782,10 +2803,10 @@
         <v>89</v>
       </c>
       <c r="I12" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10">
-        <v>92500</v>
+        <v>284017</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
@@ -2818,10 +2839,10 @@
         <v>96</v>
       </c>
       <c r="I13" s="10">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="J13" s="10">
-        <v>78011.18</v>
+        <v>92500</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
@@ -2846,20 +2867,18 @@
       <c r="E14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="I14" s="10">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="J14" s="10">
-        <v>126790</v>
+        <v>78011.18</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
@@ -2870,34 +2889,34 @@
     </row>
     <row r="15" spans="1:23" ht="18.75" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="I15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="10">
-        <v>64403</v>
+        <v>126790</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
@@ -2908,21 +2927,23 @@
     </row>
     <row r="16" spans="1:23" ht="18.75" customHeight="1">
       <c r="A16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
         <v>118</v>
       </c>
@@ -2930,10 +2951,10 @@
         <v>119</v>
       </c>
       <c r="I16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="10">
-        <v>252000</v>
+        <v>64403</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
@@ -2966,10 +2987,10 @@
         <v>126</v>
       </c>
       <c r="I17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="10">
-        <v>18639.41</v>
+        <v>252000</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
@@ -3002,10 +3023,10 @@
         <v>133</v>
       </c>
       <c r="I18" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="10">
-        <v>6432</v>
+        <v>18639.41</v>
       </c>
       <c r="K18" s="10">
         <v>0</v>
@@ -3038,10 +3059,10 @@
         <v>140</v>
       </c>
       <c r="I19" s="10">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J19" s="10">
-        <v>98240</v>
+        <v>6432</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
@@ -3074,10 +3095,10 @@
         <v>147</v>
       </c>
       <c r="I20" s="10">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="J20" s="10">
-        <v>22957</v>
+        <v>98240</v>
       </c>
       <c r="K20" s="10">
         <v>0</v>
@@ -3110,10 +3131,10 @@
         <v>154</v>
       </c>
       <c r="I21" s="10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="J21" s="10">
-        <v>97024</v>
+        <v>22957</v>
       </c>
       <c r="K21" s="10">
         <v>0</v>
@@ -3146,10 +3167,10 @@
         <v>161</v>
       </c>
       <c r="I22" s="10">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="J22" s="10">
-        <v>4995</v>
+        <v>97024</v>
       </c>
       <c r="K22" s="10">
         <v>0</v>
@@ -3174,20 +3195,18 @@
       <c r="E23" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="I23" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J23" s="10">
-        <v>54568</v>
+        <v>4995</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
@@ -3198,34 +3217,34 @@
     </row>
     <row r="24" spans="1:23" ht="18.75" customHeight="1">
       <c r="A24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="I24" s="10">
         <v>2</v>
       </c>
       <c r="J24" s="10">
-        <v>52592</v>
+        <v>54568</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -3236,34 +3255,34 @@
     </row>
     <row r="25" spans="1:23" ht="18.75" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="I25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="10">
-        <v>27284</v>
+        <v>52592</v>
       </c>
       <c r="K25" s="10">
         <v>0</v>
@@ -3274,21 +3293,23 @@
     </row>
     <row r="26" spans="1:23" ht="18.75" customHeight="1">
       <c r="A26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
         <v>191</v>
       </c>
@@ -3296,10 +3317,10 @@
         <v>192</v>
       </c>
       <c r="I26" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>41614</v>
+        <v>27284</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
@@ -3332,10 +3353,10 @@
         <v>199</v>
       </c>
       <c r="I27" s="10">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J27" s="10">
-        <v>15151</v>
+        <v>41614</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
@@ -3368,10 +3389,10 @@
         <v>206</v>
       </c>
       <c r="I28" s="10">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J28" s="10">
-        <v>41778</v>
+        <v>15151</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
@@ -3396,20 +3417,18 @@
       <c r="E29" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="I29" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29" s="10">
-        <v>314424</v>
+        <v>41778</v>
       </c>
       <c r="K29" s="10">
         <v>0</v>
@@ -3420,34 +3439,34 @@
     </row>
     <row r="30" spans="1:23" ht="18.75" customHeight="1">
       <c r="A30" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="I30" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" s="10">
-        <v>1505</v>
+        <v>314424</v>
       </c>
       <c r="K30" s="10">
         <v>0</v>
@@ -3458,34 +3477,34 @@
     </row>
     <row r="31" spans="1:23" ht="18.75" customHeight="1">
       <c r="A31" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="I31" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>10890</v>
+        <v>1505</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
@@ -3496,21 +3515,23 @@
     </row>
     <row r="32" spans="1:23" ht="18.75" customHeight="1">
       <c r="A32" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
         <v>236</v>
       </c>
@@ -3518,10 +3539,10 @@
         <v>237</v>
       </c>
       <c r="I32" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="10">
-        <v>82051</v>
+        <v>10890</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -3546,20 +3567,18 @@
       <c r="E33" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="I33" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" s="10">
-        <v>56192</v>
+        <v>82051</v>
       </c>
       <c r="K33" s="10">
         <v>0</v>
@@ -3570,34 +3589,34 @@
     </row>
     <row r="34" spans="1:23" ht="18.75" customHeight="1">
       <c r="A34" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="I34" s="10">
         <v>2</v>
       </c>
       <c r="J34" s="10">
-        <v>14048</v>
+        <v>56192</v>
       </c>
       <c r="K34" s="10">
         <v>0</v>
@@ -3608,34 +3627,34 @@
     </row>
     <row r="35" spans="1:23" ht="18.75" customHeight="1">
       <c r="A35" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="I35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="10">
-        <v>247264</v>
+        <v>14048</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
@@ -3646,34 +3665,34 @@
     </row>
     <row r="36" spans="1:23" ht="18.75" customHeight="1">
       <c r="A36" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="I36" s="10">
         <v>1</v>
       </c>
       <c r="J36" s="10">
-        <v>61816</v>
+        <v>247264</v>
       </c>
       <c r="K36" s="10">
         <v>0</v>
@@ -3684,34 +3703,34 @@
     </row>
     <row r="37" spans="1:23" ht="18.75" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="I37" s="10">
         <v>1</v>
       </c>
       <c r="J37" s="10">
-        <v>259330</v>
+        <v>61816</v>
       </c>
       <c r="K37" s="10">
         <v>0</v>
@@ -3722,21 +3741,23 @@
     </row>
     <row r="38" spans="1:23" ht="18.75" customHeight="1">
       <c r="A38" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
         <v>283</v>
       </c>
@@ -3747,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>64750</v>
+        <v>259330</v>
       </c>
       <c r="K38" s="10">
         <v>0</v>
@@ -3780,10 +3801,10 @@
         <v>291</v>
       </c>
       <c r="I39" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="10">
-        <v>126750</v>
+        <v>64750</v>
       </c>
       <c r="K39" s="10">
         <v>0</v>
@@ -3808,20 +3829,18 @@
       <c r="E40" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="I40" s="10">
         <v>3</v>
       </c>
       <c r="J40" s="10">
-        <v>84080</v>
+        <v>126750</v>
       </c>
       <c r="K40" s="10">
         <v>0</v>
@@ -3832,34 +3851,34 @@
     </row>
     <row r="41" spans="1:23" ht="18.75" customHeight="1">
       <c r="A41" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>307</v>
-      </c>
       <c r="I41" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J41" s="10">
-        <v>191651</v>
+        <v>84080</v>
       </c>
       <c r="K41" s="10">
         <v>0</v>
@@ -3870,21 +3889,23 @@
     </row>
     <row r="42" spans="1:23" ht="18.75" customHeight="1">
       <c r="A42" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
         <v>313</v>
       </c>
@@ -3892,10 +3913,10 @@
         <v>314</v>
       </c>
       <c r="I42" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J42" s="10">
-        <v>98080</v>
+        <v>191651</v>
       </c>
       <c r="K42" s="10">
         <v>0</v>
@@ -3928,10 +3949,10 @@
         <v>321</v>
       </c>
       <c r="I43" s="10">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="J43" s="10">
-        <v>452185.8</v>
+        <v>98080</v>
       </c>
       <c r="K43" s="10">
         <v>0</v>
@@ -3964,10 +3985,10 @@
         <v>328</v>
       </c>
       <c r="I44" s="10">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="J44" s="10">
-        <v>36044</v>
+        <v>452185.8</v>
       </c>
       <c r="K44" s="10">
         <v>0</v>
@@ -4000,10 +4021,10 @@
         <v>335</v>
       </c>
       <c r="I45" s="10">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="J45" s="10">
-        <v>42307</v>
+        <v>36044</v>
       </c>
       <c r="K45" s="10">
         <v>0</v>
@@ -4028,20 +4049,18 @@
       <c r="E46" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>343</v>
-      </c>
       <c r="I46" s="10">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J46" s="10">
-        <v>398208.42</v>
+        <v>42307</v>
       </c>
       <c r="K46" s="10">
         <v>0</v>
@@ -4052,21 +4071,23 @@
     </row>
     <row r="47" spans="1:23" ht="18.75" customHeight="1">
       <c r="A47" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
         <v>349</v>
       </c>
@@ -4077,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="10">
-        <v>67900</v>
+        <v>398208.42</v>
       </c>
       <c r="K47" s="10">
         <v>0</v>
@@ -4102,20 +4123,18 @@
       <c r="E48" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>358</v>
       </c>
       <c r="I48" s="10">
         <v>1</v>
       </c>
       <c r="J48" s="10">
-        <v>595238</v>
+        <v>67900</v>
       </c>
       <c r="K48" s="10">
         <v>0</v>
@@ -4126,34 +4145,34 @@
     </row>
     <row r="49" spans="1:23" ht="18.75" customHeight="1">
       <c r="A49" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="I49" s="10">
         <v>1</v>
       </c>
       <c r="J49" s="10">
-        <v>114586.416</v>
+        <v>595238</v>
       </c>
       <c r="K49" s="10">
         <v>0</v>
@@ -4164,34 +4183,34 @@
     </row>
     <row r="50" spans="1:23" ht="18.75" customHeight="1">
       <c r="A50" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>374</v>
       </c>
       <c r="I50" s="10">
         <v>1</v>
       </c>
       <c r="J50" s="10">
-        <v>28646.604</v>
+        <v>114586.416</v>
       </c>
       <c r="K50" s="10">
         <v>0</v>
@@ -4202,34 +4221,34 @@
     </row>
     <row r="51" spans="1:23" ht="18.75" customHeight="1">
       <c r="A51" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="H51" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="I51" s="10">
         <v>1</v>
       </c>
       <c r="J51" s="10">
-        <v>121560.32</v>
+        <v>28646.604</v>
       </c>
       <c r="K51" s="10">
         <v>0</v>
@@ -4240,34 +4259,34 @@
     </row>
     <row r="52" spans="1:23" ht="18.75" customHeight="1">
       <c r="A52" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="H52" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="I52" s="10">
         <v>1</v>
       </c>
       <c r="J52" s="10">
-        <v>30390.08</v>
+        <v>121560.32</v>
       </c>
       <c r="K52" s="10">
         <v>0</v>
@@ -4278,21 +4297,23 @@
     </row>
     <row r="53" spans="1:23" ht="18.75" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
         <v>396</v>
       </c>
@@ -4303,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="10">
-        <v>19840.8</v>
+        <v>30390.08</v>
       </c>
       <c r="K53" s="10">
         <v>0</v>
@@ -4339,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="10">
-        <v>4960.2</v>
+        <v>19840.8</v>
       </c>
       <c r="K54" s="10">
         <v>0</v>
@@ -4364,20 +4385,18 @@
       <c r="E55" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>412</v>
-      </c>
       <c r="I55" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="10">
-        <v>526197.5</v>
+        <v>4960.2</v>
       </c>
       <c r="K55" s="10">
         <v>0</v>
@@ -4388,34 +4407,34 @@
     </row>
     <row r="56" spans="1:23" ht="18.75" customHeight="1">
       <c r="A56" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>420</v>
-      </c>
       <c r="I56" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="10">
-        <v>237527.5</v>
+        <v>526197.5</v>
       </c>
       <c r="K56" s="10">
         <v>0</v>
@@ -4426,21 +4445,23 @@
     </row>
     <row r="57" spans="1:23" ht="18.75" customHeight="1">
       <c r="A57" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
         <v>426</v>
       </c>
@@ -4448,10 +4469,10 @@
         <v>427</v>
       </c>
       <c r="I57" s="10">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="J57" s="10">
-        <v>73759</v>
+        <v>237527.5</v>
       </c>
       <c r="K57" s="10">
         <v>0</v>
@@ -4484,10 +4505,10 @@
         <v>434</v>
       </c>
       <c r="I58" s="10">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="J58" s="10">
-        <v>57480</v>
+        <v>73759</v>
       </c>
       <c r="K58" s="10">
         <v>0</v>
@@ -4512,20 +4533,18 @@
       <c r="E59" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="H59" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>442</v>
-      </c>
       <c r="I59" s="10">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="J59" s="10">
-        <v>170133</v>
+        <v>57480</v>
       </c>
       <c r="K59" s="10">
         <v>0</v>
@@ -4536,34 +4555,34 @@
     </row>
     <row r="60" spans="1:23" ht="18.75" customHeight="1">
       <c r="A60" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>450</v>
       </c>
       <c r="I60" s="10">
         <v>1</v>
       </c>
       <c r="J60" s="10">
-        <v>328815</v>
+        <v>170133</v>
       </c>
       <c r="K60" s="10">
         <v>0</v>
@@ -4574,21 +4593,23 @@
     </row>
     <row r="61" spans="1:23" ht="18.75" customHeight="1">
       <c r="A61" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
         <v>456</v>
       </c>
@@ -4599,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="10">
-        <v>281235.75</v>
+        <v>328815</v>
       </c>
       <c r="K61" s="10">
         <v>0</v>
@@ -4635,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="10">
-        <v>4428</v>
+        <v>281235.75</v>
       </c>
       <c r="K62" s="10">
         <v>0</v>
@@ -4668,10 +4689,10 @@
         <v>471</v>
       </c>
       <c r="I63" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="10">
-        <v>16158.21</v>
+        <v>4428</v>
       </c>
       <c r="K63" s="10">
         <v>0</v>
@@ -4704,10 +4725,10 @@
         <v>478</v>
       </c>
       <c r="I64" s="10">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>357890</v>
+        <v>16158.21</v>
       </c>
       <c r="K64" s="10">
         <v>0</v>
@@ -4740,10 +4761,10 @@
         <v>485</v>
       </c>
       <c r="I65" s="10">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="J65" s="10">
-        <v>28533.6</v>
+        <v>357890</v>
       </c>
       <c r="K65" s="10">
         <v>0</v>
@@ -4768,20 +4789,18 @@
       <c r="E66" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="H66" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>493</v>
-      </c>
       <c r="I66" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" s="10">
-        <v>212616</v>
+        <v>28533.6</v>
       </c>
       <c r="K66" s="10">
         <v>0</v>
@@ -4792,34 +4811,34 @@
     </row>
     <row r="67" spans="1:23" ht="18.75" customHeight="1">
       <c r="A67" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="E67" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="F67" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="G67" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="H67" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>501</v>
-      </c>
       <c r="I67" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" s="10">
-        <v>127695</v>
+        <v>212616</v>
       </c>
       <c r="K67" s="10">
         <v>0</v>
@@ -4830,21 +4849,23 @@
     </row>
     <row r="68" spans="1:23" ht="18.75" customHeight="1">
       <c r="A68" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="E68" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
         <v>507</v>
       </c>
@@ -4852,10 +4873,10 @@
         <v>508</v>
       </c>
       <c r="I68" s="10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J68" s="10">
-        <v>7678.14</v>
+        <v>127695</v>
       </c>
       <c r="K68" s="10">
         <v>0</v>
@@ -4888,10 +4909,10 @@
         <v>515</v>
       </c>
       <c r="I69" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J69" s="10">
-        <v>30712.56</v>
+        <v>7678.14</v>
       </c>
       <c r="K69" s="10">
         <v>0</v>
@@ -4916,20 +4937,18 @@
       <c r="E70" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="10"/>
+      <c r="G70" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="H70" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>523</v>
-      </c>
       <c r="I70" s="10">
-        <v>0.4</v>
+        <v>52</v>
       </c>
       <c r="J70" s="10">
-        <v>15556.6</v>
+        <v>30712.56</v>
       </c>
       <c r="K70" s="10">
         <v>0</v>
@@ -4940,34 +4959,34 @@
     </row>
     <row r="71" spans="1:23" ht="18.75" customHeight="1">
       <c r="A71" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="H71" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="I71" s="10">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="J71" s="10">
-        <v>62226.4</v>
+        <v>15556.6</v>
       </c>
       <c r="K71" s="10">
         <v>0</v>
@@ -4978,21 +4997,23 @@
     </row>
     <row r="72" spans="1:23" ht="18.75" customHeight="1">
       <c r="A72" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="F72" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
         <v>537</v>
       </c>
@@ -5000,10 +5021,10 @@
         <v>538</v>
       </c>
       <c r="I72" s="10">
-        <v>207</v>
+        <v>1.6</v>
       </c>
       <c r="J72" s="10">
-        <v>116769.3</v>
+        <v>62226.4</v>
       </c>
       <c r="K72" s="10">
         <v>0</v>
@@ -5036,10 +5057,10 @@
         <v>545</v>
       </c>
       <c r="I73" s="10">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="J73" s="10">
-        <v>58490.04</v>
+        <v>116769.3</v>
       </c>
       <c r="K73" s="10">
         <v>0</v>
@@ -5072,10 +5093,10 @@
         <v>552</v>
       </c>
       <c r="I74" s="10">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="J74" s="10">
-        <v>41515.4</v>
+        <v>58490.04</v>
       </c>
       <c r="K74" s="10">
         <v>0</v>
@@ -5108,10 +5129,10 @@
         <v>559</v>
       </c>
       <c r="I75" s="10">
-        <v>0.2</v>
+        <v>72</v>
       </c>
       <c r="J75" s="10">
-        <v>4769.726</v>
+        <v>41515.4</v>
       </c>
       <c r="K75" s="10">
         <v>0</v>
@@ -5144,10 +5165,10 @@
         <v>566</v>
       </c>
       <c r="I76" s="10">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J76" s="10">
-        <v>19078.904</v>
+        <v>4769.726</v>
       </c>
       <c r="K76" s="10">
         <v>0</v>
@@ -5180,10 +5201,10 @@
         <v>573</v>
       </c>
       <c r="I77" s="10">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="J77" s="10">
-        <v>6801.99</v>
+        <v>19078.904</v>
       </c>
       <c r="K77" s="10">
         <v>0</v>
@@ -5216,10 +5237,10 @@
         <v>580</v>
       </c>
       <c r="I78" s="10">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J78" s="10">
-        <v>27207.96</v>
+        <v>6801.99</v>
       </c>
       <c r="K78" s="10">
         <v>0</v>
@@ -5252,10 +5273,10 @@
         <v>587</v>
       </c>
       <c r="I79" s="10">
-        <v>1.8</v>
+        <v>28</v>
       </c>
       <c r="J79" s="10">
-        <v>12785.72</v>
+        <v>27207.96</v>
       </c>
       <c r="K79" s="10">
         <v>0</v>
@@ -5288,10 +5309,10 @@
         <v>594</v>
       </c>
       <c r="I80" s="10">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="J80" s="10">
-        <v>51142.88</v>
+        <v>12785.72</v>
       </c>
       <c r="K80" s="10">
         <v>0</v>
@@ -5316,20 +5337,18 @@
       <c r="E81" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="H81" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>602</v>
-      </c>
       <c r="I81" s="10">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="J81" s="10">
-        <v>61250.2</v>
+        <v>51142.88</v>
       </c>
       <c r="K81" s="10">
         <v>0</v>
@@ -5340,39 +5359,77 @@
     </row>
     <row r="82" spans="1:23" ht="18.75" customHeight="1">
       <c r="A82" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="E82" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="F82" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="G82" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="H82" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="I82" s="10">
+        <v>1</v>
+      </c>
+      <c r="J82" s="10">
+        <v>61250.2</v>
+      </c>
+      <c r="K82" s="10">
+        <v>0</v>
+      </c>
+      <c r="L82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="18.75" customHeight="1">
+      <c r="A83" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="I82" s="10">
+      <c r="B83" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I83" s="10">
         <v>4</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J83" s="10">
         <v>245000.8</v>
       </c>
-      <c r="K82" s="10">
-        <v>0</v>
-      </c>
-      <c r="L82" s="10">
+      <c r="K83" s="10">
+        <v>0</v>
+      </c>
+      <c r="L83" s="10">
         <v>0</v>
       </c>
     </row>
